--- a/medicine/Psychotrope/Vinhos_regionais/Vinhos_regionais.xlsx
+++ b/medicine/Psychotrope/Vinhos_regionais/Vinhos_regionais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'appellation Vinho regional définit les vins de table portugais avec une indication géographique. L'appellation est similaire aux vins de pays en France sous les Indications Géographiques Protégées (IGP) définies par l'Union Européenne. Ces vins qui, tout en étant de qualité, ne sont pas considérés comme des AOVQPRD, car ils ne respectent pas au moins l’une des règles des appellations portugaises (DOC ou IPR).
  Portail du Portugal   Portail de la vigne et du vin                    </t>
